--- a/Spain/Data/02_intermediate/summary_STRAWBERRIES.xlsx
+++ b/Spain/Data/02_intermediate/summary_STRAWBERRIES.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -368,21 +368,39 @@
   <sheetData>
     <row r="1">
       <c r="B1" s="1" t="n">
+        <v>2009</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>2011</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>2012</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>2013</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>2014</v>
+      </c>
+      <c r="H1" s="1" t="n">
         <v>2015</v>
       </c>
-      <c r="C1" s="1" t="n">
+      <c r="I1" s="1" t="n">
         <v>2016</v>
       </c>
-      <c r="D1" s="1" t="n">
+      <c r="J1" s="1" t="n">
         <v>2017</v>
       </c>
-      <c r="E1" s="1" t="n">
+      <c r="K1" s="1" t="n">
         <v>2018</v>
       </c>
-      <c r="F1" s="1" t="n">
+      <c r="L1" s="1" t="n">
         <v>2019</v>
       </c>
-      <c r="G1" s="1" t="n">
+      <c r="M1" s="1" t="n">
         <v>2020</v>
       </c>
     </row>
@@ -396,18 +414,36 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
         <v>29</v>
       </c>
-      <c r="D2" t="n">
+      <c r="J2" t="n">
         <v>27</v>
       </c>
-      <c r="E2" t="n">
+      <c r="K2" t="n">
         <v>27</v>
       </c>
-      <c r="F2" t="n">
+      <c r="L2" t="n">
         <v>25</v>
       </c>
-      <c r="G2" t="n">
+      <c r="M2" t="n">
         <v>26</v>
       </c>
     </row>
@@ -418,20 +454,26 @@
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
-      <c r="C3" t="n">
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="n">
         <v>1.57677059777363</v>
       </c>
-      <c r="D3" t="n">
+      <c r="J3" t="n">
         <v>1.853158783125982</v>
       </c>
-      <c r="E3" t="n">
+      <c r="K3" t="n">
         <v>1.735838798501507</v>
       </c>
-      <c r="F3" t="n">
+      <c r="L3" t="n">
         <v>1.813199538986507</v>
       </c>
-      <c r="G3" t="n">
-        <v>1.851116598963962</v>
+      <c r="M3" t="n">
+        <v>1.853951202552226</v>
       </c>
     </row>
     <row r="4">
@@ -441,20 +483,26 @@
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
-      <c r="C4" t="n">
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="n">
         <v>1.143308422135791</v>
       </c>
-      <c r="D4" t="n">
+      <c r="J4" t="n">
         <v>1.097427164630502</v>
       </c>
-      <c r="E4" t="n">
+      <c r="K4" t="n">
         <v>0.8965988167607843</v>
       </c>
-      <c r="F4" t="n">
+      <c r="L4" t="n">
         <v>1.373468264939794</v>
       </c>
-      <c r="G4" t="n">
-        <v>1.223013465149995</v>
+      <c r="M4" t="n">
+        <v>1.22089507822005</v>
       </c>
     </row>
     <row r="5">
@@ -464,19 +512,25 @@
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
-      <c r="C5" t="n">
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="n">
         <v>0.6444612049061834</v>
       </c>
-      <c r="D5" t="n">
+      <c r="J5" t="n">
         <v>0.6897269580981509</v>
       </c>
-      <c r="E5" t="n">
+      <c r="K5" t="n">
         <v>0.7799170674514385</v>
       </c>
-      <c r="F5" t="n">
+      <c r="L5" t="n">
         <v>0.6478881242931127</v>
       </c>
-      <c r="G5" t="n">
+      <c r="M5" t="n">
         <v>0.8066829725159009</v>
       </c>
     </row>
@@ -487,20 +541,26 @@
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
-      <c r="C6" t="n">
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="n">
         <v>0.9807633204745193</v>
       </c>
-      <c r="D6" t="n">
+      <c r="J6" t="n">
         <v>0.9028644183361793</v>
       </c>
-      <c r="E6" t="n">
+      <c r="K6" t="n">
         <v>0.9190440686592485</v>
       </c>
-      <c r="F6" t="n">
+      <c r="L6" t="n">
         <v>0.8016320540091433</v>
       </c>
-      <c r="G6" t="n">
-        <v>0.968754992699923</v>
+      <c r="M6" t="n">
+        <v>0.9834531181240288</v>
       </c>
     </row>
     <row r="7">
@@ -510,19 +570,25 @@
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
-      <c r="C7" t="n">
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="n">
         <v>1.274529686772878</v>
       </c>
-      <c r="D7" t="n">
+      <c r="J7" t="n">
         <v>1.844327789636066</v>
       </c>
-      <c r="E7" t="n">
+      <c r="K7" t="n">
         <v>1.55657204945054</v>
       </c>
-      <c r="F7" t="n">
+      <c r="L7" t="n">
         <v>1.479470843911362</v>
       </c>
-      <c r="G7" t="n">
+      <c r="M7" t="n">
         <v>1.167501624428141</v>
       </c>
     </row>
@@ -533,19 +599,25 @@
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
-      <c r="C8" t="n">
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="n">
         <v>1.471558570100326</v>
       </c>
-      <c r="D8" t="n">
+      <c r="J8" t="n">
         <v>2.315881097018852</v>
       </c>
-      <c r="E8" t="n">
+      <c r="K8" t="n">
         <v>2.282607456583391</v>
       </c>
-      <c r="F8" t="n">
+      <c r="L8" t="n">
         <v>2.332674655140596</v>
       </c>
-      <c r="G8" t="n">
+      <c r="M8" t="n">
         <v>2.473009791462784</v>
       </c>
     </row>
@@ -556,19 +628,25 @@
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
-      <c r="C9" t="n">
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="n">
         <v>5.245049700387733</v>
       </c>
-      <c r="D9" t="n">
+      <c r="J9" t="n">
         <v>4.207530428164726</v>
       </c>
-      <c r="E9" t="n">
+      <c r="K9" t="n">
         <v>3.769088720112518</v>
       </c>
-      <c r="F9" t="n">
+      <c r="L9" t="n">
         <v>5.522720497734497</v>
       </c>
-      <c r="G9" t="n">
+      <c r="M9" t="n">
         <v>4.855903701042041</v>
       </c>
     </row>

--- a/Spain/Data/02_intermediate/summary_STRAWBERRIES.xlsx
+++ b/Spain/Data/02_intermediate/summary_STRAWBERRIES.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -368,39 +368,21 @@
   <sheetData>
     <row r="1">
       <c r="B1" s="1" t="n">
-        <v>2009</v>
+        <v>2015</v>
       </c>
       <c r="C1" s="1" t="n">
-        <v>2010</v>
+        <v>2016</v>
       </c>
       <c r="D1" s="1" t="n">
-        <v>2011</v>
+        <v>2017</v>
       </c>
       <c r="E1" s="1" t="n">
-        <v>2012</v>
+        <v>2018</v>
       </c>
       <c r="F1" s="1" t="n">
-        <v>2013</v>
+        <v>2019</v>
       </c>
       <c r="G1" s="1" t="n">
-        <v>2014</v>
-      </c>
-      <c r="H1" s="1" t="n">
-        <v>2015</v>
-      </c>
-      <c r="I1" s="1" t="n">
-        <v>2016</v>
-      </c>
-      <c r="J1" s="1" t="n">
-        <v>2017</v>
-      </c>
-      <c r="K1" s="1" t="n">
-        <v>2018</v>
-      </c>
-      <c r="L1" s="1" t="n">
-        <v>2019</v>
-      </c>
-      <c r="M1" s="1" t="n">
         <v>2020</v>
       </c>
     </row>
@@ -414,36 +396,18 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>29</v>
-      </c>
-      <c r="J2" t="n">
-        <v>27</v>
-      </c>
-      <c r="K2" t="n">
-        <v>27</v>
-      </c>
-      <c r="L2" t="n">
-        <v>25</v>
-      </c>
-      <c r="M2" t="n">
         <v>26</v>
       </c>
     </row>
@@ -454,26 +418,20 @@
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="n">
+      <c r="C3" t="n">
         <v>1.57677059777363</v>
       </c>
-      <c r="J3" t="n">
+      <c r="D3" t="n">
         <v>1.853158783125982</v>
       </c>
-      <c r="K3" t="n">
+      <c r="E3" t="n">
         <v>1.735838798501507</v>
       </c>
-      <c r="L3" t="n">
+      <c r="F3" t="n">
         <v>1.813199538986507</v>
       </c>
-      <c r="M3" t="n">
-        <v>1.853951202552226</v>
+      <c r="G3" t="n">
+        <v>1.851116598963962</v>
       </c>
     </row>
     <row r="4">
@@ -483,26 +441,20 @@
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="n">
+      <c r="C4" t="n">
         <v>1.143308422135791</v>
       </c>
-      <c r="J4" t="n">
+      <c r="D4" t="n">
         <v>1.097427164630502</v>
       </c>
-      <c r="K4" t="n">
+      <c r="E4" t="n">
         <v>0.8965988167607843</v>
       </c>
-      <c r="L4" t="n">
+      <c r="F4" t="n">
         <v>1.373468264939794</v>
       </c>
-      <c r="M4" t="n">
-        <v>1.22089507822005</v>
+      <c r="G4" t="n">
+        <v>1.223013465149995</v>
       </c>
     </row>
     <row r="5">
@@ -512,25 +464,19 @@
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="n">
+      <c r="C5" t="n">
         <v>0.6444612049061834</v>
       </c>
-      <c r="J5" t="n">
+      <c r="D5" t="n">
         <v>0.6897269580981509</v>
       </c>
-      <c r="K5" t="n">
+      <c r="E5" t="n">
         <v>0.7799170674514385</v>
       </c>
-      <c r="L5" t="n">
+      <c r="F5" t="n">
         <v>0.6478881242931127</v>
       </c>
-      <c r="M5" t="n">
+      <c r="G5" t="n">
         <v>0.8066829725159009</v>
       </c>
     </row>
@@ -541,26 +487,20 @@
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="n">
+      <c r="C6" t="n">
         <v>0.9807633204745193</v>
       </c>
-      <c r="J6" t="n">
+      <c r="D6" t="n">
         <v>0.9028644183361793</v>
       </c>
-      <c r="K6" t="n">
+      <c r="E6" t="n">
         <v>0.9190440686592485</v>
       </c>
-      <c r="L6" t="n">
+      <c r="F6" t="n">
         <v>0.8016320540091433</v>
       </c>
-      <c r="M6" t="n">
-        <v>0.9834531181240288</v>
+      <c r="G6" t="n">
+        <v>0.968754992699923</v>
       </c>
     </row>
     <row r="7">
@@ -570,25 +510,19 @@
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="n">
+      <c r="C7" t="n">
         <v>1.274529686772878</v>
       </c>
-      <c r="J7" t="n">
+      <c r="D7" t="n">
         <v>1.844327789636066</v>
       </c>
-      <c r="K7" t="n">
+      <c r="E7" t="n">
         <v>1.55657204945054</v>
       </c>
-      <c r="L7" t="n">
+      <c r="F7" t="n">
         <v>1.479470843911362</v>
       </c>
-      <c r="M7" t="n">
+      <c r="G7" t="n">
         <v>1.167501624428141</v>
       </c>
     </row>
@@ -599,25 +533,19 @@
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="n">
+      <c r="C8" t="n">
         <v>1.471558570100326</v>
       </c>
-      <c r="J8" t="n">
+      <c r="D8" t="n">
         <v>2.315881097018852</v>
       </c>
-      <c r="K8" t="n">
+      <c r="E8" t="n">
         <v>2.282607456583391</v>
       </c>
-      <c r="L8" t="n">
+      <c r="F8" t="n">
         <v>2.332674655140596</v>
       </c>
-      <c r="M8" t="n">
+      <c r="G8" t="n">
         <v>2.473009791462784</v>
       </c>
     </row>
@@ -628,25 +556,19 @@
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="n">
+      <c r="C9" t="n">
         <v>5.245049700387733</v>
       </c>
-      <c r="J9" t="n">
+      <c r="D9" t="n">
         <v>4.207530428164726</v>
       </c>
-      <c r="K9" t="n">
+      <c r="E9" t="n">
         <v>3.769088720112518</v>
       </c>
-      <c r="L9" t="n">
+      <c r="F9" t="n">
         <v>5.522720497734497</v>
       </c>
-      <c r="M9" t="n">
+      <c r="G9" t="n">
         <v>4.855903701042041</v>
       </c>
     </row>
